--- a/data/Excel Workbooks/Calvin2011/ChinaDataWorkbook.xlsx
+++ b/data/Excel Workbooks/Calvin2011/ChinaDataWorkbook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="280" windowWidth="21840" windowHeight="13300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28100" windowHeight="17560" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="China Workbook" sheetId="1" r:id="rId1"/>
@@ -2600,10 +2600,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2617,6 +2617,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2627,9 +2630,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3586,61 +3586,61 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.025828510517504</c:v>
+                  <c:v>1.017869115029879</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.037689682939687</c:v>
+                  <c:v>1.032683086591476</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.050060188644996</c:v>
+                  <c:v>1.045599634951212</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.061531393682739</c:v>
+                  <c:v>1.056780590332603</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.072716259117005</c:v>
+                  <c:v>1.07050891711504</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.083751346912529</c:v>
+                  <c:v>1.085510533422395</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.09440039380697</c:v>
+                  <c:v>1.098663887061381</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.103917417043384</c:v>
+                  <c:v>1.114249654880333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.127685980137144</c:v>
+                  <c:v>1.131015892925423</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.120556999020954</c:v>
+                  <c:v>1.142997759030947</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.143131132314121</c:v>
+                  <c:v>1.155848264812064</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.165408647146251</c:v>
+                  <c:v>1.168481752026193</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.15629138497367</c:v>
+                  <c:v>1.17791714781029</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.17821720919724</c:v>
+                  <c:v>1.19002917613652</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.200004402810847</c:v>
+                  <c:v>1.199296030317525</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.206288082865535</c:v>
+                  <c:v>1.209313502673541</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.210779484188824</c:v>
+                  <c:v>1.20653258392912</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.19464461141654</c:v>
+                  <c:v>1.210440022781649</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.200427697027395</c:v>
+                  <c:v>1.214393090736113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3987,11 +3987,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2140877000"/>
-        <c:axId val="-2142169976"/>
+        <c:axId val="2086579432"/>
+        <c:axId val="2086549064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2140877000"/>
+        <c:axId val="2086579432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4029,12 +4029,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2142169976"/>
+        <c:crossAx val="2086549064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2142169976"/>
+        <c:axId val="2086549064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4072,7 +4072,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2140877000"/>
+        <c:crossAx val="2086579432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4869,7 +4869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC32"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
@@ -5155,26 +5155,26 @@
       <c r="Y9" s="5"/>
     </row>
     <row r="10" spans="1:55" ht="15" customHeight="1">
-      <c r="E10" s="95" t="s">
+      <c r="E10" s="94" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="95" t="s">
+      <c r="F10" s="94" t="s">
         <v>0</v>
       </c>
       <c r="G10" s="73"/>
-      <c r="H10" s="95" t="s">
+      <c r="H10" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="95" t="s">
+      <c r="I10" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="J10" s="95" t="s">
+      <c r="J10" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="K10" s="95" t="s">
+      <c r="K10" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="L10" s="95" t="s">
+      <c r="L10" s="94" t="s">
         <v>41</v>
       </c>
     </row>
@@ -5191,14 +5191,14 @@
       <c r="D11" s="93" t="s">
         <v>103</v>
       </c>
-      <c r="E11" s="95"/>
-      <c r="F11" s="95"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
       <c r="G11" s="73"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="95"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="94"/>
     </row>
     <row r="12" spans="1:55">
       <c r="A12" s="21">
@@ -5212,7 +5212,7 @@
       </c>
       <c r="D12" s="79">
         <f>'Employment calcs'!G9</f>
-        <v>621421200</v>
+        <v>611348225.91447806</v>
       </c>
       <c r="E12" s="76">
         <f>'Exergy calcs'!AO31</f>
@@ -5223,23 +5223,23 @@
         <v>32940242.560637239</v>
       </c>
       <c r="G12" s="74">
-        <f>A12-$A$12</f>
+        <f t="shared" ref="G12:G32" si="0">A12-$A$12</f>
         <v>0</v>
       </c>
       <c r="H12" s="10">
-        <f>B12/$B$12</f>
+        <f t="shared" ref="H12:H32" si="1">B12/$B$12</f>
         <v>1</v>
       </c>
       <c r="I12" s="10">
-        <f>C12/$C$12</f>
+        <f t="shared" ref="I12:I32" si="2">C12/$C$12</f>
         <v>1</v>
       </c>
       <c r="J12" s="10">
-        <f>D12/$D$12</f>
+        <f t="shared" ref="J12:J32" si="3">D12/$D$12</f>
         <v>1</v>
       </c>
       <c r="K12" s="13">
-        <f t="shared" ref="K12:K32" si="0">E12/$E$12</f>
+        <f t="shared" ref="K12:K32" si="4">E12/$E$12</f>
         <v>1</v>
       </c>
       <c r="L12" s="13">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="D13" s="79">
         <f>'Employment calcs'!G10</f>
-        <v>637471584</v>
+        <v>622272477.68665624</v>
       </c>
       <c r="E13" s="76">
         <f>'Exergy calcs'!AO32</f>
@@ -5270,27 +5270,27 @@
         <v>34139930.268433489</v>
       </c>
       <c r="G13" s="74">
-        <f>A13-$A$12</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H13" s="13">
-        <f>B13/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.1420010626344625</v>
       </c>
       <c r="I13" s="13">
-        <f>C13/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.0985107132899505</v>
       </c>
       <c r="J13" s="13">
-        <f>D13/$D$12</f>
-        <v>1.025828510517504</v>
+        <f t="shared" si="3"/>
+        <v>1.0178691150298789</v>
       </c>
       <c r="K13" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.0363780582761455</v>
       </c>
       <c r="L13" s="13">
-        <f t="shared" ref="L13:L31" si="1">F13/$F$12</f>
+        <f t="shared" ref="L13:L31" si="5">F13/$F$12</f>
         <v>1.0364201236705477</v>
       </c>
     </row>
@@ -5306,7 +5306,7 @@
       </c>
       <c r="D14" s="79">
         <f>'Employment calcs'!G11</f>
-        <v>644842368</v>
+        <v>631328972.9195863</v>
       </c>
       <c r="E14" s="76">
         <f>'Exergy calcs'!AO33</f>
@@ -5317,27 +5317,27 @@
         <v>35943492.565376356</v>
       </c>
       <c r="G14" s="74">
-        <f>A14-$A$12</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H14" s="13">
-        <f>B14/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.3018805145938037</v>
       </c>
       <c r="I14" s="13">
-        <f>C14/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.2403796076615936</v>
       </c>
       <c r="J14" s="13">
-        <f>D14/$D$12</f>
-        <v>1.0376896829396873</v>
+        <f t="shared" si="3"/>
+        <v>1.0326830865914762</v>
       </c>
       <c r="K14" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.0914400675409635</v>
       </c>
       <c r="L14" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.0911726742512797</v>
       </c>
     </row>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="D15" s="79">
         <f>'Employment calcs'!G12</f>
-        <v>652529662.5</v>
+        <v>639225481.84424961</v>
       </c>
       <c r="E15" s="76">
         <f>'Exergy calcs'!AO34</f>
@@ -5364,27 +5364,27 @@
         <v>38739119.119008392</v>
       </c>
       <c r="G15" s="74">
-        <f>A15-$A$12</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H15" s="13">
-        <f>B15/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.4724263777230009</v>
       </c>
       <c r="I15" s="13">
-        <f>C15/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.4015155899016787</v>
       </c>
       <c r="J15" s="13">
-        <f>D15/$D$12</f>
-        <v>1.0500601886449963</v>
+        <f t="shared" si="3"/>
+        <v>1.0455996349512124</v>
       </c>
       <c r="K15" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.1763434041212082</v>
       </c>
       <c r="L15" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.1760423150405293</v>
       </c>
     </row>
@@ -5400,7 +5400,7 @@
       </c>
       <c r="D16" s="79">
         <f>'Employment calcs'!G13</f>
-        <v>659658112.5</v>
+        <v>646060939.08069158</v>
       </c>
       <c r="E16" s="76">
         <f>'Exergy calcs'!AO35</f>
@@ -5411,27 +5411,27 @@
         <v>39701054.20700793</v>
       </c>
       <c r="G16" s="74">
-        <f>A16-$A$12</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H16" s="13">
-        <f>B16/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.6329207640515988</v>
       </c>
       <c r="I16" s="13">
-        <f>C16/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.5763081892356818</v>
       </c>
       <c r="J16" s="13">
-        <f>D16/$D$12</f>
-        <v>1.0615313936827389</v>
+        <f t="shared" si="3"/>
+        <v>1.0567805903326029</v>
       </c>
       <c r="K16" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.2061438588220461</v>
       </c>
       <c r="L16" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.2052447438395517</v>
       </c>
     </row>
@@ -5447,7 +5447,7 @@
       </c>
       <c r="D17" s="79">
         <f>'Employment calcs'!G14</f>
-        <v>666608625</v>
+        <v>654453727.30390871</v>
       </c>
       <c r="E17" s="76">
         <f>'Exergy calcs'!AO36</f>
@@ -5458,27 +5458,27 @@
         <v>41740659.796579629</v>
       </c>
       <c r="G17" s="74">
-        <f>A17-$A$12</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H17" s="13">
-        <f>B17/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.7962145824804676</v>
       </c>
       <c r="I17" s="13">
-        <f>C17/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.7664083693248671</v>
       </c>
       <c r="J17" s="13">
-        <f>D17/$D$12</f>
-        <v>1.0727162591170047</v>
+        <f t="shared" si="3"/>
+        <v>1.0705089171150399</v>
       </c>
       <c r="K17" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.2677247831214169</v>
       </c>
       <c r="L17" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.2671630975316091</v>
       </c>
     </row>
@@ -5494,7 +5494,7 @@
       </c>
       <c r="D18" s="79">
         <f>'Employment calcs'!G15</f>
-        <v>673466062.5</v>
+        <v>663624938.81926012</v>
       </c>
       <c r="E18" s="76">
         <f>'Exergy calcs'!AO37</f>
@@ -5505,27 +5505,27 @@
         <v>45456342.586971857</v>
       </c>
       <c r="G18" s="74">
-        <f>A18-$A$12</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="H18" s="13">
-        <f>B18/$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.9632624620021077</v>
       </c>
       <c r="I18" s="13">
-        <f>C18/$C$12</f>
+        <f t="shared" si="2"/>
         <v>1.9674541842240472</v>
       </c>
       <c r="J18" s="13">
-        <f>D18/$D$12</f>
-        <v>1.0837513469125288</v>
+        <f t="shared" si="3"/>
+        <v>1.0855105334223953</v>
       </c>
       <c r="K18" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.3787805466297578</v>
       </c>
       <c r="L18" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.379963808806042</v>
       </c>
     </row>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="D19" s="79">
         <f>'Employment calcs'!G16</f>
-        <v>680083606</v>
+        <v>671666218.23127973</v>
       </c>
       <c r="E19" s="76">
         <f>'Exergy calcs'!AO38</f>
@@ -5552,27 +5552,27 @@
         <v>46938055.679451674</v>
       </c>
       <c r="G19" s="74">
-        <f>A19-$A$12</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="H19" s="13">
-        <f>B19/$B$12</f>
+        <f t="shared" si="1"/>
         <v>2.116396798160423</v>
       </c>
       <c r="I19" s="13">
-        <f>C19/$C$12</f>
+        <f t="shared" si="2"/>
         <v>2.1905964336379244</v>
       </c>
       <c r="J19" s="13">
-        <f>D19/$D$12</f>
-        <v>1.0944003938069702</v>
+        <f t="shared" si="3"/>
+        <v>1.098663887061381</v>
       </c>
       <c r="K19" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.4239524902210814</v>
       </c>
       <c r="L19" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.4249456601009207</v>
       </c>
     </row>
@@ -5588,7 +5588,7 @@
       </c>
       <c r="D20" s="79">
         <f>'Employment calcs'!G17</f>
-        <v>685997686</v>
+        <v>681194549.73691118</v>
       </c>
       <c r="E20" s="76">
         <f>'Exergy calcs'!AO39</f>
@@ -5599,27 +5599,27 @@
         <v>46243769.887212344</v>
       </c>
       <c r="G20" s="74">
-        <f>A20-$A$12</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="H20" s="13">
-        <f>B20/$B$12</f>
+        <f t="shared" si="1"/>
         <v>2.2772413312545186</v>
       </c>
       <c r="I20" s="13">
-        <f>C20/$C$12</f>
+        <f t="shared" si="2"/>
         <v>2.422423120154733</v>
       </c>
       <c r="J20" s="13">
-        <f>D20/$D$12</f>
-        <v>1.1039174170433839</v>
+        <f t="shared" si="3"/>
+        <v>1.1142496548803333</v>
       </c>
       <c r="K20" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.4038376564415576</v>
       </c>
       <c r="L20" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.4038685295679179</v>
       </c>
     </row>
@@ -5635,7 +5635,7 @@
       </c>
       <c r="D21" s="79">
         <f>'Employment calcs'!G18</f>
-        <v>700767975</v>
+        <v>691444559.62103665</v>
       </c>
       <c r="E21" s="76">
         <f>'Exergy calcs'!AO40</f>
@@ -5646,27 +5646,27 @@
         <v>48435900.023543797</v>
       </c>
       <c r="G21" s="74">
-        <f>A21-$A$12</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="H21" s="13">
-        <f>B21/$B$12</f>
+        <f t="shared" si="1"/>
         <v>2.4685312127098049</v>
       </c>
       <c r="I21" s="13">
-        <f>C21/$C$12</f>
+        <f t="shared" si="2"/>
         <v>2.6766750310816048</v>
       </c>
       <c r="J21" s="13">
-        <f>D21/$D$12</f>
-        <v>1.1276859801371437</v>
+        <f t="shared" si="3"/>
+        <v>1.131015892925423</v>
       </c>
       <c r="K21" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.4703668396482878</v>
       </c>
       <c r="L21" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.470417223989221</v>
       </c>
     </row>
@@ -5682,7 +5682,7 @@
       </c>
       <c r="D22" s="79">
         <f>'Employment calcs'!G19</f>
-        <v>696337875</v>
+        <v>698769652.20779359</v>
       </c>
       <c r="E22" s="76">
         <f>'Exergy calcs'!AO41</f>
@@ -5693,27 +5693,27 @@
         <v>50314557.823417053</v>
       </c>
       <c r="G22" s="74">
-        <f>A22-$A$12</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="H22" s="13">
-        <f>B22/$B$12</f>
+        <f t="shared" si="1"/>
         <v>2.6734193312370982</v>
       </c>
       <c r="I22" s="13">
-        <f>C22/$C$12</f>
+        <f t="shared" si="2"/>
         <v>2.951721368537525</v>
       </c>
       <c r="J22" s="13">
-        <f>D22/$D$12</f>
-        <v>1.1205569990209538</v>
+        <f t="shared" si="3"/>
+        <v>1.142997759030947</v>
       </c>
       <c r="K22" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.5285411964292384</v>
       </c>
       <c r="L22" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.5274495241131492</v>
       </c>
     </row>
@@ -5729,7 +5729,7 @@
       </c>
       <c r="D23" s="79">
         <f>'Employment calcs'!G20</f>
-        <v>710365920</v>
+        <v>706625786.11918318</v>
       </c>
       <c r="E23" s="76">
         <f>'Exergy calcs'!AO42</f>
@@ -5740,27 +5740,27 @@
         <v>55573128.070279583</v>
       </c>
       <c r="G23" s="74">
-        <f>A23-$A$12</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="H23" s="13">
-        <f>B23/$B$12</f>
+        <f t="shared" si="1"/>
         <v>2.9166999102857791</v>
       </c>
       <c r="I23" s="13">
-        <f>C23/$C$12</f>
+        <f t="shared" si="2"/>
         <v>3.2685310368893497</v>
       </c>
       <c r="J23" s="13">
-        <f>D23/$D$12</f>
-        <v>1.1431311323141213</v>
+        <f t="shared" si="3"/>
+        <v>1.155848264812064</v>
       </c>
       <c r="K23" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.6867578122761935</v>
       </c>
       <c r="L23" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.6870892182405504</v>
       </c>
     </row>
@@ -5776,7 +5776,7 @@
       </c>
       <c r="D24" s="79">
         <f>'Employment calcs'!G21</f>
-        <v>724209640</v>
+        <v>714349246.11465418</v>
       </c>
       <c r="E24" s="76">
         <f>'Exergy calcs'!AO43</f>
@@ -5787,27 +5787,27 @@
         <v>62088466.776185751</v>
       </c>
       <c r="G24" s="74">
-        <f>A24-$A$12</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="H24" s="13">
-        <f>B24/$B$12</f>
+        <f t="shared" si="1"/>
         <v>3.2083704239214694</v>
       </c>
       <c r="I24" s="13">
-        <f>C24/$C$12</f>
+        <f t="shared" si="2"/>
         <v>3.6488637897989209</v>
       </c>
       <c r="J24" s="13">
-        <f>D24/$D$12</f>
-        <v>1.1654086471462513</v>
+        <f t="shared" si="3"/>
+        <v>1.168481752026193</v>
       </c>
       <c r="K24" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.8830237738216187</v>
       </c>
       <c r="L24" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.8848818936864753</v>
       </c>
     </row>
@@ -5823,7 +5823,7 @@
       </c>
       <c r="D25" s="79">
         <f>'Employment calcs'!G22</f>
-        <v>718543980</v>
+        <v>720117558.58806276</v>
       </c>
       <c r="E25" s="76">
         <f>'Exergy calcs'!AO44</f>
@@ -5834,27 +5834,27 @@
         <v>69637924.352398068</v>
       </c>
       <c r="G25" s="74">
-        <f>A25-$A$12</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="H25" s="13">
-        <f>B25/$B$12</f>
+        <f t="shared" si="1"/>
         <v>3.5324147061641509</v>
       </c>
       <c r="I25" s="13">
-        <f>C25/$C$12</f>
+        <f t="shared" si="2"/>
         <v>4.0734919941852414</v>
       </c>
       <c r="J25" s="13">
-        <f>D25/$D$12</f>
-        <v>1.15629138497367</v>
+        <f t="shared" si="3"/>
+        <v>1.1779171478102899</v>
       </c>
       <c r="K25" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.1124705766406309</v>
       </c>
       <c r="L25" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.1140683534496385</v>
       </c>
     </row>
@@ -5870,7 +5870,7 @@
       </c>
       <c r="D26" s="79">
         <f>'Employment calcs'!G23</f>
-        <v>732169152</v>
+        <v>727522225.61752927</v>
       </c>
       <c r="E26" s="76">
         <f>'Exergy calcs'!AO45</f>
@@ -5881,27 +5881,27 @@
         <v>79236025.076802298</v>
       </c>
       <c r="G26" s="74">
-        <f>A26-$A$12</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="H26" s="13">
-        <f>B26/$B$12</f>
+        <f t="shared" si="1"/>
         <v>3.9315785347838585</v>
       </c>
       <c r="I26" s="13">
-        <f>C26/$C$12</f>
+        <f t="shared" si="2"/>
         <v>4.547123044576896</v>
       </c>
       <c r="J26" s="13">
-        <f>D26/$D$12</f>
-        <v>1.17821720919724</v>
+        <f t="shared" si="3"/>
+        <v>1.1900291761365198</v>
       </c>
       <c r="K26" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.4021902372308266</v>
       </c>
       <c r="L26" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.4054475291413717</v>
       </c>
     </row>
@@ -5917,7 +5917,7 @@
       </c>
       <c r="D27" s="79">
         <f>'Employment calcs'!G24</f>
-        <v>745708176</v>
+        <v>733187500.48089516</v>
       </c>
       <c r="E27" s="76">
         <f>'Exergy calcs'!AO46</f>
@@ -5928,27 +5928,27 @@
         <v>86594291.424020648</v>
       </c>
       <c r="G27" s="74">
-        <f>A27-$A$12</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="H27" s="13">
-        <f>B27/$B$12</f>
+        <f t="shared" si="1"/>
         <v>4.4308878223832631</v>
       </c>
       <c r="I27" s="13">
-        <f>C27/$C$12</f>
+        <f t="shared" si="2"/>
         <v>5.0819993231312024</v>
       </c>
       <c r="J27" s="13">
-        <f>D27/$D$12</f>
-        <v>1.2000044028108472</v>
+        <f t="shared" si="3"/>
+        <v>1.1992960303175253</v>
       </c>
       <c r="K27" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.6250158150928318</v>
       </c>
       <c r="L27" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.6288298048994529</v>
       </c>
     </row>
@@ -5964,7 +5964,7 @@
       </c>
       <c r="D28" s="79">
         <f>'Employment calcs'!G25</f>
-        <v>749612988</v>
+        <v>739311664.43389297</v>
       </c>
       <c r="E28" s="76">
         <f>'Exergy calcs'!AO47</f>
@@ -5975,27 +5975,27 @@
         <v>92551828.200474083</v>
       </c>
       <c r="G28" s="74">
-        <f>A28-$A$12</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="H28" s="13">
-        <f>B28/$B$12</f>
+        <f t="shared" si="1"/>
         <v>5.0600736876028884</v>
       </c>
       <c r="I28" s="13">
-        <f>C28/$C$12</f>
+        <f t="shared" si="2"/>
         <v>5.6910146543848299</v>
       </c>
       <c r="J28" s="13">
-        <f>D28/$D$12</f>
-        <v>1.2062880828655347</v>
+        <f t="shared" si="3"/>
+        <v>1.2093135026735413</v>
       </c>
       <c r="K28" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.8062144990974685</v>
       </c>
       <c r="L28" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.8096887274009084</v>
       </c>
     </row>
@@ -6011,7 +6011,7 @@
       </c>
       <c r="D29" s="79">
         <f>'Employment calcs'!G26</f>
-        <v>752404040</v>
+        <v>737611554.69307888</v>
       </c>
       <c r="E29" s="76">
         <f>'Exergy calcs'!AO48</f>
@@ -6022,27 +6022,27 @@
         <v>97629138.161390349</v>
       </c>
       <c r="G29" s="74">
-        <f>A29-$A$12</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="H29" s="13">
-        <f>B29/$B$12</f>
+        <f t="shared" si="1"/>
         <v>5.5458422249126809</v>
       </c>
       <c r="I29" s="13">
-        <f>C29/$C$12</f>
+        <f t="shared" si="2"/>
         <v>6.3511651437118717</v>
       </c>
       <c r="J29" s="13">
-        <f>D29/$D$12</f>
-        <v>1.210779484188824</v>
+        <f t="shared" si="3"/>
+        <v>1.2065325839291203</v>
       </c>
       <c r="K29" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.9616345564196394</v>
       </c>
       <c r="L29" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.9638257211273458</v>
       </c>
     </row>
@@ -6058,7 +6058,7 @@
       </c>
       <c r="D30" s="79">
         <f>'Employment calcs'!G27</f>
-        <v>742377488</v>
+        <v>740000360.50344157</v>
       </c>
       <c r="E30" s="76">
         <f>'Exergy calcs'!AO49</f>
@@ -6069,27 +6069,27 @@
         <v>110298292.68265024</v>
       </c>
       <c r="G30" s="74">
-        <f>A30-$A$12</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="H30" s="13">
-        <f>B30/$B$12</f>
+        <f t="shared" si="1"/>
         <v>6.056058322953775</v>
       </c>
       <c r="I30" s="13">
-        <f>C30/$C$12</f>
+        <f t="shared" si="2"/>
         <v>7.2033298087056554</v>
       </c>
       <c r="J30" s="13">
-        <f>D30/$D$12</f>
-        <v>1.1946446114165401</v>
+        <f t="shared" si="3"/>
+        <v>1.210440022781649</v>
       </c>
       <c r="K30" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3.3442903621128823</v>
       </c>
       <c r="L30" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3.348435958830914</v>
       </c>
     </row>
@@ -6105,7 +6105,7 @@
       </c>
       <c r="D31" s="79">
         <f>'Employment calcs'!G28</f>
-        <v>745971220</v>
+        <v>742417061.58432233</v>
       </c>
       <c r="E31" s="76">
         <f>'Exergy calcs'!AO50</f>
@@ -6116,27 +6116,27 @@
         <v>117790529.91086587</v>
       </c>
       <c r="G31" s="74">
-        <f>A31-$A$12</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="H31" s="13">
-        <f>B31/$B$12</f>
+        <f t="shared" si="1"/>
         <v>6.6844602775043764</v>
       </c>
       <c r="I31" s="13">
-        <f>C31/$C$12</f>
+        <f t="shared" si="2"/>
         <v>8.1441590255894987</v>
       </c>
       <c r="J31" s="13">
-        <f>D31/$D$12</f>
-        <v>1.2004276970273946</v>
+        <f t="shared" si="3"/>
+        <v>1.2143930907361127</v>
       </c>
       <c r="K31" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3.5744785772970471</v>
       </c>
       <c r="L31" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3.5758853230674927</v>
       </c>
     </row>
@@ -6152,7 +6152,7 @@
       </c>
       <c r="D32" s="79">
         <f>'Employment calcs'!G29</f>
-        <v>749486888</v>
+        <v>748260462.12776089</v>
       </c>
       <c r="E32" s="76">
         <f>'Exergy calcs'!AO51</f>
@@ -6163,23 +6163,23 @@
         <v>125725620.62053312</v>
       </c>
       <c r="G32" s="74">
-        <f>A32-$A$12</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="H32" s="13">
-        <f>B32/$B$12</f>
+        <f t="shared" si="1"/>
         <v>7.3012882265327628</v>
       </c>
       <c r="I32" s="13">
-        <f>C32/$C$12</f>
+        <f t="shared" si="2"/>
         <v>9.189646888420107</v>
       </c>
       <c r="J32" s="13">
-        <f>D32/$D$12</f>
-        <v>1.2060851609182306</v>
+        <f t="shared" si="3"/>
+        <v>1.2239513102511816</v>
       </c>
       <c r="K32" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3.8145090203943046</v>
       </c>
       <c r="L32" s="13">
@@ -6189,13 +6189,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="E10:E11"/>
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="L10:L11"/>
     <mergeCell ref="K10:K11"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="H10:H11"/>
-    <mergeCell ref="E10:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -6210,7 +6210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2:J22"/>
     </sheetView>
   </sheetViews>
@@ -6314,7 +6314,7 @@
       </c>
       <c r="E3" s="78">
         <f>'China Workbook'!J13</f>
-        <v>1.025828510517504</v>
+        <v>1.0178691150298789</v>
       </c>
       <c r="F3" s="78">
         <f>'China Workbook'!K13</f>
@@ -6353,7 +6353,7 @@
       </c>
       <c r="E4" s="78">
         <f>'China Workbook'!J14</f>
-        <v>1.0376896829396873</v>
+        <v>1.0326830865914762</v>
       </c>
       <c r="F4" s="78">
         <f>'China Workbook'!K14</f>
@@ -6392,7 +6392,7 @@
       </c>
       <c r="E5" s="78">
         <f>'China Workbook'!J15</f>
-        <v>1.0500601886449963</v>
+        <v>1.0455996349512124</v>
       </c>
       <c r="F5" s="78">
         <f>'China Workbook'!K15</f>
@@ -6431,7 +6431,7 @@
       </c>
       <c r="E6" s="78">
         <f>'China Workbook'!J16</f>
-        <v>1.0615313936827389</v>
+        <v>1.0567805903326029</v>
       </c>
       <c r="F6" s="78">
         <f>'China Workbook'!K16</f>
@@ -6470,7 +6470,7 @@
       </c>
       <c r="E7" s="78">
         <f>'China Workbook'!J17</f>
-        <v>1.0727162591170047</v>
+        <v>1.0705089171150399</v>
       </c>
       <c r="F7" s="78">
         <f>'China Workbook'!K17</f>
@@ -6509,7 +6509,7 @@
       </c>
       <c r="E8" s="78">
         <f>'China Workbook'!J18</f>
-        <v>1.0837513469125288</v>
+        <v>1.0855105334223953</v>
       </c>
       <c r="F8" s="78">
         <f>'China Workbook'!K18</f>
@@ -6548,7 +6548,7 @@
       </c>
       <c r="E9" s="78">
         <f>'China Workbook'!J19</f>
-        <v>1.0944003938069702</v>
+        <v>1.098663887061381</v>
       </c>
       <c r="F9" s="78">
         <f>'China Workbook'!K19</f>
@@ -6587,7 +6587,7 @@
       </c>
       <c r="E10" s="78">
         <f>'China Workbook'!J20</f>
-        <v>1.1039174170433839</v>
+        <v>1.1142496548803333</v>
       </c>
       <c r="F10" s="78">
         <f>'China Workbook'!K20</f>
@@ -6626,7 +6626,7 @@
       </c>
       <c r="E11" s="78">
         <f>'China Workbook'!J21</f>
-        <v>1.1276859801371437</v>
+        <v>1.131015892925423</v>
       </c>
       <c r="F11" s="78">
         <f>'China Workbook'!K21</f>
@@ -6665,7 +6665,7 @@
       </c>
       <c r="E12" s="78">
         <f>'China Workbook'!J22</f>
-        <v>1.1205569990209538</v>
+        <v>1.142997759030947</v>
       </c>
       <c r="F12" s="78">
         <f>'China Workbook'!K22</f>
@@ -6704,7 +6704,7 @@
       </c>
       <c r="E13" s="78">
         <f>'China Workbook'!J23</f>
-        <v>1.1431311323141213</v>
+        <v>1.155848264812064</v>
       </c>
       <c r="F13" s="78">
         <f>'China Workbook'!K23</f>
@@ -6743,7 +6743,7 @@
       </c>
       <c r="E14" s="78">
         <f>'China Workbook'!J24</f>
-        <v>1.1654086471462513</v>
+        <v>1.168481752026193</v>
       </c>
       <c r="F14" s="78">
         <f>'China Workbook'!K24</f>
@@ -6782,7 +6782,7 @@
       </c>
       <c r="E15" s="78">
         <f>'China Workbook'!J25</f>
-        <v>1.15629138497367</v>
+        <v>1.1779171478102899</v>
       </c>
       <c r="F15" s="78">
         <f>'China Workbook'!K25</f>
@@ -6821,7 +6821,7 @@
       </c>
       <c r="E16" s="78">
         <f>'China Workbook'!J26</f>
-        <v>1.17821720919724</v>
+        <v>1.1900291761365198</v>
       </c>
       <c r="F16" s="78">
         <f>'China Workbook'!K26</f>
@@ -6860,7 +6860,7 @@
       </c>
       <c r="E17" s="78">
         <f>'China Workbook'!J27</f>
-        <v>1.2000044028108472</v>
+        <v>1.1992960303175253</v>
       </c>
       <c r="F17" s="78">
         <f>'China Workbook'!K27</f>
@@ -6899,7 +6899,7 @@
       </c>
       <c r="E18" s="78">
         <f>'China Workbook'!J28</f>
-        <v>1.2062880828655347</v>
+        <v>1.2093135026735413</v>
       </c>
       <c r="F18" s="78">
         <f>'China Workbook'!K28</f>
@@ -6938,7 +6938,7 @@
       </c>
       <c r="E19" s="78">
         <f>'China Workbook'!J29</f>
-        <v>1.210779484188824</v>
+        <v>1.2065325839291203</v>
       </c>
       <c r="F19" s="78">
         <f>'China Workbook'!K29</f>
@@ -6977,7 +6977,7 @@
       </c>
       <c r="E20" s="78">
         <f>'China Workbook'!J30</f>
-        <v>1.1946446114165401</v>
+        <v>1.210440022781649</v>
       </c>
       <c r="F20" s="78">
         <f>'China Workbook'!K30</f>
@@ -7016,7 +7016,7 @@
       </c>
       <c r="E21" s="78">
         <f>'China Workbook'!J31</f>
-        <v>1.2004276970273946</v>
+        <v>1.2143930907361127</v>
       </c>
       <c r="F21" s="78">
         <f>'China Workbook'!K31</f>
@@ -7055,7 +7055,7 @@
       </c>
       <c r="E22" s="78">
         <f>'China Workbook'!J32</f>
-        <v>1.2060851609182306</v>
+        <v>1.2239513102511816</v>
       </c>
       <c r="F22" s="78">
         <f>'China Workbook'!K32</f>
@@ -7089,8 +7089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7294,34 +7294,34 @@
     </row>
     <row r="7" spans="1:54" ht="15" customHeight="1">
       <c r="A7" s="4"/>
-      <c r="B7" s="94" t="s">
+      <c r="B7" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="94" t="s">
+      <c r="C7" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="94" t="s">
+      <c r="D7" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="94" t="s">
+      <c r="E7" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="94" t="s">
+      <c r="F7" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="94" t="s">
+      <c r="G7" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="94" t="s">
+      <c r="H7" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="94" t="s">
+      <c r="I7" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="94" t="s">
+      <c r="J7" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="94" t="s">
+      <c r="K7" s="95" t="s">
         <v>45</v>
       </c>
     </row>
@@ -7329,41 +7329,41 @@
       <c r="A8" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
     </row>
     <row r="9" spans="1:54">
       <c r="A9" s="4">
         <v>1991</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="11">
         <v>75</v>
       </c>
       <c r="C9" s="4">
-        <v>28</v>
+        <v>29.167089462280298</v>
       </c>
       <c r="D9" s="5">
         <v>1150780000</v>
       </c>
       <c r="E9" s="7">
         <f t="shared" ref="E9:E29" si="0">D9*(1-(C9/100))</f>
-        <v>828561600</v>
+        <v>815130967.88597071</v>
       </c>
       <c r="F9" s="20">
         <f t="shared" ref="F9:F29" si="1">E9/100000000</f>
-        <v>8.2856159999999992</v>
+        <v>8.1513096788597075</v>
       </c>
       <c r="G9" s="7">
         <f t="shared" ref="G9:G29" si="2">E9*(B9/100)</f>
-        <v>621421200</v>
+        <v>611348225.91447806</v>
       </c>
       <c r="H9" s="7">
         <v>583600000</v>
@@ -7377,26 +7377,26 @@
       <c r="A10" s="4">
         <v>1992</v>
       </c>
-      <c r="B10" s="4">
-        <v>76</v>
+      <c r="B10" s="11">
+        <v>75.300003051757798</v>
       </c>
       <c r="C10" s="4">
-        <v>28</v>
+        <v>29.063320159912099</v>
       </c>
       <c r="D10" s="5">
         <v>1164970000</v>
       </c>
       <c r="E10" s="7">
         <f t="shared" si="0"/>
-        <v>838778400</v>
+        <v>826391039.13307202</v>
       </c>
       <c r="F10" s="20">
         <f t="shared" si="1"/>
-        <v>8.3877839999999999</v>
+        <v>8.2639103913307199</v>
       </c>
       <c r="G10" s="7">
         <f t="shared" si="2"/>
-        <v>637471584</v>
+        <v>622272477.68665624</v>
       </c>
       <c r="H10" s="7">
         <v>594320000</v>
@@ -7410,26 +7410,26 @@
       <c r="A11" s="4">
         <v>1993</v>
       </c>
-      <c r="B11" s="4">
-        <v>76</v>
+      <c r="B11" s="11">
+        <v>75.400001525878906</v>
       </c>
       <c r="C11" s="4">
-        <v>28</v>
+        <v>28.947904586791999</v>
       </c>
       <c r="D11" s="5">
         <v>1178440000</v>
       </c>
       <c r="E11" s="7">
         <f t="shared" si="0"/>
-        <v>848476800</v>
+        <v>837306313.18740845</v>
       </c>
       <c r="F11" s="20">
         <f t="shared" si="1"/>
-        <v>8.4847680000000008</v>
+        <v>8.3730631318740851</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" si="2"/>
-        <v>644842368</v>
+        <v>631328972.9195863</v>
       </c>
       <c r="H11" s="7">
         <v>602200000</v>
@@ -7443,26 +7443,26 @@
       <c r="A12" s="4">
         <v>1994</v>
       </c>
-      <c r="B12" s="4">
-        <v>75</v>
+      <c r="B12" s="11">
+        <v>75.300003051757798</v>
       </c>
       <c r="C12" s="4">
-        <v>27</v>
+        <v>28.773279190063501</v>
       </c>
       <c r="D12" s="5">
         <v>1191835000</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" si="0"/>
-        <v>870039550</v>
+        <v>848904987.96510673</v>
       </c>
       <c r="F12" s="20">
         <f t="shared" si="1"/>
-        <v>8.7003955000000008</v>
+        <v>8.4890498796510681</v>
       </c>
       <c r="G12" s="7">
         <f t="shared" si="2"/>
-        <v>652529662.5</v>
+        <v>639225481.84424961</v>
       </c>
       <c r="H12" s="7">
         <v>614700000</v>
@@ -7476,26 +7476,26 @@
       <c r="A13" s="4">
         <v>1995</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="11">
         <v>75</v>
       </c>
       <c r="C13" s="4">
-        <v>27</v>
+        <v>28.5047092437744</v>
       </c>
       <c r="D13" s="5">
         <v>1204855000</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="0"/>
-        <v>879544150</v>
+        <v>861414585.44092202</v>
       </c>
       <c r="F13" s="20">
         <f t="shared" si="1"/>
-        <v>8.7954415000000008</v>
+        <v>8.6141458544092195</v>
       </c>
       <c r="G13" s="7">
         <f t="shared" si="2"/>
-        <v>659658112.5</v>
+        <v>646060939.08069158</v>
       </c>
       <c r="H13" s="7">
         <v>623880000</v>
@@ -7516,26 +7516,26 @@
       <c r="A14" s="4">
         <v>1996</v>
       </c>
-      <c r="B14" s="4">
-        <v>75</v>
+      <c r="B14" s="11">
+        <v>74.800003051757798</v>
       </c>
       <c r="C14" s="4">
-        <v>27</v>
+        <v>28.139451980590799</v>
       </c>
       <c r="D14" s="5">
         <v>1217550000</v>
       </c>
       <c r="E14" s="7">
         <f t="shared" si="0"/>
-        <v>888811500</v>
+        <v>874938102.41031671</v>
       </c>
       <c r="F14" s="20">
         <f t="shared" si="1"/>
-        <v>8.8881150000000009</v>
+        <v>8.7493810241031671</v>
       </c>
       <c r="G14" s="7">
         <f t="shared" si="2"/>
-        <v>666608625</v>
+        <v>654453727.30390871</v>
       </c>
       <c r="H14" s="17"/>
       <c r="I14" s="20"/>
@@ -7551,26 +7551,26 @@
       <c r="A15" s="4">
         <v>1997</v>
       </c>
-      <c r="B15" s="4">
-        <v>75</v>
+      <c r="B15" s="11">
+        <v>74.599998474121094</v>
       </c>
       <c r="C15" s="4">
-        <v>27</v>
+        <v>27.6810207366943</v>
       </c>
       <c r="D15" s="5">
         <v>1230075000</v>
       </c>
       <c r="E15" s="7">
         <f t="shared" si="0"/>
-        <v>897954750</v>
+        <v>889577684.17310762</v>
       </c>
       <c r="F15" s="20">
         <f t="shared" si="1"/>
-        <v>8.9795475000000007</v>
+        <v>8.8957768417310756</v>
       </c>
       <c r="G15" s="7">
         <f t="shared" si="2"/>
-        <v>673466062.5</v>
+        <v>663624938.81926012</v>
       </c>
       <c r="H15" s="17"/>
       <c r="I15" s="20"/>
@@ -7586,26 +7586,26 @@
       <c r="A16" s="4">
         <v>1998</v>
       </c>
-      <c r="B16" s="4">
-        <v>74</v>
+      <c r="B16" s="11">
+        <v>74.199996948242202</v>
       </c>
       <c r="C16" s="4">
-        <v>26</v>
+        <v>27.112886428833001</v>
       </c>
       <c r="D16" s="5">
         <v>1241935000</v>
       </c>
       <c r="E16" s="7">
         <f t="shared" si="0"/>
-        <v>919031900</v>
+        <v>905210573.93007278</v>
       </c>
       <c r="F16" s="20">
         <f t="shared" si="1"/>
-        <v>9.1903190000000006</v>
+        <v>9.0521057393007283</v>
       </c>
       <c r="G16" s="7">
         <f t="shared" si="2"/>
-        <v>680083606</v>
+        <v>671666218.23127973</v>
       </c>
       <c r="H16" s="17"/>
       <c r="I16" s="20"/>
@@ -7621,26 +7621,26 @@
       <c r="A17" s="4">
         <v>1999</v>
       </c>
-      <c r="B17" s="4">
-        <v>74</v>
+      <c r="B17" s="11">
+        <v>73.900001525878906</v>
       </c>
       <c r="C17" s="4">
-        <v>26</v>
+        <v>26.4186916351318</v>
       </c>
       <c r="D17" s="5">
         <v>1252735000</v>
       </c>
       <c r="E17" s="7">
         <f t="shared" si="0"/>
-        <v>927023900</v>
+        <v>921778803.34463167</v>
       </c>
       <c r="F17" s="20">
         <f t="shared" si="1"/>
-        <v>9.2702390000000001</v>
+        <v>9.2177880334463165</v>
       </c>
       <c r="G17" s="7">
         <f t="shared" si="2"/>
-        <v>685997686</v>
+        <v>681194549.73691118</v>
       </c>
       <c r="H17" s="17"/>
       <c r="I17" s="20"/>
@@ -7656,26 +7656,26 @@
       <c r="A18" s="4">
         <v>2000</v>
       </c>
-      <c r="B18" s="4">
-        <v>74</v>
+      <c r="B18" s="11">
+        <v>73.599998474121094</v>
       </c>
       <c r="C18" s="4">
-        <v>25</v>
+        <v>25.595655441284201</v>
       </c>
       <c r="D18" s="5">
         <v>1262645000</v>
       </c>
       <c r="E18" s="7">
         <f t="shared" si="0"/>
-        <v>946983750</v>
+        <v>939462736.35339725</v>
       </c>
       <c r="F18" s="20">
         <f t="shared" si="1"/>
-        <v>9.4698375000000006</v>
+        <v>9.3946273635339725</v>
       </c>
       <c r="G18" s="7">
         <f t="shared" si="2"/>
-        <v>700767975</v>
+        <v>691444559.62103665</v>
       </c>
       <c r="I18" s="20"/>
       <c r="K18" s="19"/>
@@ -7686,26 +7686,26 @@
       <c r="A19" s="4">
         <v>2001</v>
       </c>
-      <c r="B19" s="4">
-        <v>73</v>
+      <c r="B19" s="11">
+        <v>72.900001525878906</v>
       </c>
       <c r="C19" s="4">
-        <v>25</v>
+        <v>24.634843826293899</v>
       </c>
       <c r="D19" s="5">
         <v>1271850000</v>
       </c>
       <c r="E19" s="7">
         <f t="shared" si="0"/>
-        <v>953887500</v>
+        <v>958531738.79528105</v>
       </c>
       <c r="F19" s="20">
         <f t="shared" si="1"/>
-        <v>9.5388750000000009</v>
+        <v>9.5853173879528111</v>
       </c>
       <c r="G19" s="7">
         <f t="shared" si="2"/>
-        <v>696337875</v>
+        <v>698769652.20779359</v>
       </c>
       <c r="I19" s="20"/>
       <c r="K19" s="19"/>
@@ -7716,26 +7716,26 @@
       <c r="A20" s="4">
         <v>2002</v>
       </c>
-      <c r="B20" s="4">
-        <v>73</v>
+      <c r="B20" s="11">
+        <v>72.199996948242202</v>
       </c>
       <c r="C20" s="4">
-        <v>24</v>
+        <v>23.562471389770501</v>
       </c>
       <c r="D20" s="5">
         <v>1280400000</v>
       </c>
       <c r="E20" s="7">
         <f t="shared" si="0"/>
-        <v>973104000</v>
+        <v>978706116.32537854</v>
       </c>
       <c r="F20" s="20">
         <f t="shared" si="1"/>
-        <v>9.7310400000000001</v>
+        <v>9.7870611632537852</v>
       </c>
       <c r="G20" s="7">
         <f t="shared" si="2"/>
-        <v>710365920</v>
+        <v>706625786.11918318</v>
       </c>
       <c r="I20" s="20"/>
       <c r="K20" s="19"/>
@@ -7746,26 +7746,26 @@
       <c r="A21" s="4">
         <v>2003</v>
       </c>
-      <c r="B21" s="4">
-        <v>73</v>
+      <c r="B21" s="11">
+        <v>71.5</v>
       </c>
       <c r="C21" s="4">
-        <v>23</v>
+        <v>22.454994201660199</v>
       </c>
       <c r="D21" s="5">
         <v>1288400000</v>
       </c>
       <c r="E21" s="7">
         <f t="shared" si="0"/>
-        <v>992068000</v>
+        <v>999089854.70581007</v>
       </c>
       <c r="F21" s="20">
         <f t="shared" si="1"/>
-        <v>9.9206800000000008</v>
+        <v>9.9908985470581015</v>
       </c>
       <c r="G21" s="7">
         <f t="shared" si="2"/>
-        <v>724209640</v>
+        <v>714349246.11465418</v>
       </c>
       <c r="I21" s="20"/>
       <c r="K21" s="19"/>
@@ -7776,26 +7776,26 @@
       <c r="A22" s="4">
         <v>2004</v>
       </c>
-      <c r="B22" s="4">
-        <v>72</v>
+      <c r="B22" s="11">
+        <v>70.699996948242202</v>
       </c>
       <c r="C22" s="4">
-        <v>23</v>
+        <v>21.412427902221701</v>
       </c>
       <c r="D22" s="5">
         <v>1296075000</v>
       </c>
       <c r="E22" s="7">
         <f t="shared" si="0"/>
-        <v>997977750</v>
+        <v>1018553875.0662801</v>
       </c>
       <c r="F22" s="20">
         <f t="shared" si="1"/>
-        <v>9.9797775000000009</v>
+        <v>10.185538750662801</v>
       </c>
       <c r="G22" s="7">
         <f t="shared" si="2"/>
-        <v>718543980</v>
+        <v>720117558.58806276</v>
       </c>
       <c r="I22" s="20"/>
       <c r="K22" s="19"/>
@@ -7806,26 +7806,26 @@
       <c r="A23" s="4">
         <v>2005</v>
       </c>
-      <c r="B23" s="4">
-        <v>72</v>
+      <c r="B23" s="11">
+        <v>70.199996948242202</v>
       </c>
       <c r="C23" s="4">
-        <v>22</v>
+        <v>20.507740020751999</v>
       </c>
       <c r="D23" s="5">
         <v>1303720000</v>
       </c>
       <c r="E23" s="7">
         <f t="shared" si="0"/>
-        <v>1016901600</v>
+        <v>1036356491.801452</v>
       </c>
       <c r="F23" s="20">
         <f t="shared" si="1"/>
-        <v>10.169015999999999</v>
+        <v>10.36356491801452</v>
       </c>
       <c r="G23" s="7">
         <f t="shared" si="2"/>
-        <v>732169152</v>
+        <v>727522225.61752927</v>
       </c>
       <c r="I23" s="20"/>
       <c r="K23" s="19"/>
@@ -7836,26 +7836,26 @@
       <c r="A24" s="4">
         <v>2006</v>
       </c>
-      <c r="B24" s="4">
-        <v>72</v>
+      <c r="B24" s="11">
+        <v>69.699996948242202</v>
       </c>
       <c r="C24" s="4">
-        <v>21</v>
+        <v>19.7633152008057</v>
       </c>
       <c r="D24" s="5">
         <v>1311020000</v>
       </c>
       <c r="E24" s="7">
         <f t="shared" si="0"/>
-        <v>1035705800</v>
+        <v>1051918985.0543971</v>
       </c>
       <c r="F24" s="20">
         <f t="shared" si="1"/>
-        <v>10.357058</v>
+        <v>10.51918985054397</v>
       </c>
       <c r="G24" s="7">
         <f t="shared" si="2"/>
-        <v>745708176</v>
+        <v>733187500.48089516</v>
       </c>
       <c r="I24" s="20"/>
       <c r="K24" s="19"/>
@@ -7866,26 +7866,26 @@
       <c r="A25" s="4">
         <v>2007</v>
       </c>
-      <c r="B25" s="4">
-        <v>72</v>
+      <c r="B25" s="11">
+        <v>69.400001525878906</v>
       </c>
       <c r="C25" s="4">
-        <v>21</v>
+        <v>19.166652679443398</v>
       </c>
       <c r="D25" s="5">
         <v>1317885000</v>
       </c>
       <c r="E25" s="7">
         <f t="shared" si="0"/>
-        <v>1041129150</v>
+        <v>1065290559.3355174</v>
       </c>
       <c r="F25" s="20">
         <f t="shared" si="1"/>
-        <v>10.411291500000001</v>
+        <v>10.652905593355174</v>
       </c>
       <c r="G25" s="7">
         <f t="shared" si="2"/>
-        <v>749612988</v>
+        <v>739311664.43389297</v>
       </c>
       <c r="I25" s="20"/>
       <c r="K25" s="19"/>
@@ -7896,26 +7896,26 @@
       <c r="A26" s="4">
         <v>2008</v>
       </c>
-      <c r="B26" s="4">
-        <v>71</v>
+      <c r="B26" s="11">
+        <v>68.5</v>
       </c>
       <c r="C26" s="4">
-        <v>20</v>
+        <v>18.710517883300799</v>
       </c>
       <c r="D26" s="5">
         <v>1324655000</v>
       </c>
       <c r="E26" s="7">
         <f t="shared" si="0"/>
-        <v>1059724000</v>
+        <v>1076805189.3329618</v>
       </c>
       <c r="F26" s="20">
         <f t="shared" si="1"/>
-        <v>10.597239999999999</v>
+        <v>10.768051893329618</v>
       </c>
       <c r="G26" s="7">
         <f t="shared" si="2"/>
-        <v>752404040</v>
+        <v>737611554.69307888</v>
       </c>
       <c r="I26" s="20"/>
       <c r="K26" s="19"/>
@@ -7926,26 +7926,26 @@
       <c r="A27" s="4">
         <v>2009</v>
       </c>
-      <c r="B27" s="4">
-        <v>68</v>
+      <c r="B27" s="11">
+        <v>68.099998474121094</v>
       </c>
       <c r="C27" s="4">
-        <v>18</v>
+        <v>18.3752346038818</v>
       </c>
       <c r="D27" s="5">
-        <v>1331380000</v>
+        <v>1331260000</v>
       </c>
       <c r="E27" s="7">
         <f t="shared" si="0"/>
-        <v>1091731600</v>
+        <v>1086637851.8123631</v>
       </c>
       <c r="F27" s="20">
         <f t="shared" si="1"/>
-        <v>10.917316</v>
+        <v>10.866378518123632</v>
       </c>
       <c r="G27" s="7">
         <f t="shared" si="2"/>
-        <v>742377488</v>
+        <v>740000360.50344157</v>
       </c>
       <c r="I27" s="20"/>
       <c r="K27" s="19"/>
@@ -7956,26 +7956,26 @@
       <c r="A28" s="4">
         <v>2010</v>
       </c>
-      <c r="B28" s="4">
-        <v>68</v>
+      <c r="B28" s="11">
+        <v>67.800003051757798</v>
       </c>
       <c r="C28" s="4">
-        <v>18</v>
+        <v>18.142612457275401</v>
       </c>
       <c r="D28" s="5">
-        <v>1337825000</v>
+        <v>1337705000</v>
       </c>
       <c r="E28" s="7">
         <f t="shared" si="0"/>
-        <v>1097016500</v>
+        <v>1095010366.0284042</v>
       </c>
       <c r="F28" s="20">
         <f t="shared" si="1"/>
-        <v>10.970165</v>
+        <v>10.950103660284043</v>
       </c>
       <c r="G28" s="7">
         <f t="shared" si="2"/>
-        <v>745971220</v>
+        <v>742417061.58432233</v>
       </c>
       <c r="I28" s="20"/>
       <c r="K28" s="19"/>
@@ -7986,26 +7986,26 @@
       <c r="A29">
         <v>2011</v>
       </c>
-      <c r="B29">
-        <v>68</v>
+      <c r="B29" s="11">
+        <v>67.900001525878906</v>
       </c>
       <c r="C29" s="4">
-        <v>18</v>
+        <v>18.013614654541001</v>
       </c>
       <c r="D29" s="5">
         <v>1344130000</v>
       </c>
       <c r="E29" s="7">
         <f t="shared" si="0"/>
-        <v>1102186600</v>
+        <v>1102003601.3439181</v>
       </c>
       <c r="F29" s="20">
         <f t="shared" si="1"/>
-        <v>11.021865999999999</v>
+        <v>11.020036013439181</v>
       </c>
       <c r="G29" s="7">
         <f t="shared" si="2"/>
-        <v>749486888</v>
+        <v>748260462.12776089</v>
       </c>
     </row>
     <row r="33" spans="2:5">
@@ -8419,13 +8419,13 @@
       </c>
     </row>
     <row r="29" spans="1:41" ht="15" customHeight="1">
-      <c r="A29" s="100" t="s">
+      <c r="A29" s="101" t="s">
         <v>1</v>
       </c>
       <c r="B29" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="102" t="s">
+      <c r="C29" s="103" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="96" t="s">
@@ -8458,10 +8458,10 @@
       <c r="M29" s="98" t="s">
         <v>74</v>
       </c>
-      <c r="N29" s="100" t="s">
+      <c r="N29" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="O29" s="102" t="s">
+      <c r="O29" s="103" t="s">
         <v>62</v>
       </c>
       <c r="P29" s="96" t="s">
@@ -8476,10 +8476,10 @@
       <c r="S29" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="T29" s="100" t="s">
+      <c r="T29" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="U29" s="102" t="s">
+      <c r="U29" s="103" t="s">
         <v>28</v>
       </c>
       <c r="V29" s="96" t="s">
@@ -8509,10 +8509,10 @@
       <c r="AD29" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="AE29" s="100" t="s">
+      <c r="AE29" s="101" t="s">
         <v>87</v>
       </c>
-      <c r="AF29" s="102" t="s">
+      <c r="AF29" s="103" t="s">
         <v>88</v>
       </c>
       <c r="AG29" s="96" t="s">
@@ -8544,9 +8544,9 @@
       </c>
     </row>
     <row r="30" spans="1:41">
-      <c r="A30" s="101"/>
+      <c r="A30" s="102"/>
       <c r="B30" s="97"/>
-      <c r="C30" s="103"/>
+      <c r="C30" s="104"/>
       <c r="D30" s="97"/>
       <c r="E30" s="97"/>
       <c r="F30" s="97"/>
@@ -8556,15 +8556,15 @@
       <c r="J30" s="97"/>
       <c r="K30" s="97"/>
       <c r="L30" s="97"/>
-      <c r="M30" s="104"/>
-      <c r="N30" s="101"/>
-      <c r="O30" s="103"/>
+      <c r="M30" s="100"/>
+      <c r="N30" s="102"/>
+      <c r="O30" s="104"/>
       <c r="P30" s="97"/>
       <c r="Q30" s="97"/>
       <c r="R30" s="97"/>
       <c r="S30" s="97"/>
-      <c r="T30" s="101"/>
-      <c r="U30" s="103"/>
+      <c r="T30" s="102"/>
+      <c r="U30" s="104"/>
       <c r="V30" s="97"/>
       <c r="W30" s="97"/>
       <c r="X30" s="97"/>
@@ -8574,8 +8574,8 @@
       <c r="AB30" s="97"/>
       <c r="AC30" s="97"/>
       <c r="AD30" s="99"/>
-      <c r="AE30" s="101"/>
-      <c r="AF30" s="103"/>
+      <c r="AE30" s="102"/>
+      <c r="AF30" s="104"/>
       <c r="AG30" s="97"/>
       <c r="AH30" s="97"/>
       <c r="AI30" s="97"/>
@@ -13302,15 +13302,26 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="Z29:Z30"/>
-    <mergeCell ref="AA29:AA30"/>
-    <mergeCell ref="AK29:AK30"/>
-    <mergeCell ref="AL29:AL30"/>
-    <mergeCell ref="Y29:Y30"/>
-    <mergeCell ref="AB29:AB30"/>
-    <mergeCell ref="AC29:AC30"/>
-    <mergeCell ref="AD29:AD30"/>
-    <mergeCell ref="AJ29:AJ30"/>
+    <mergeCell ref="AM29:AM30"/>
+    <mergeCell ref="AN29:AN30"/>
+    <mergeCell ref="AO29:AO30"/>
+    <mergeCell ref="AE29:AE30"/>
+    <mergeCell ref="AF29:AF30"/>
+    <mergeCell ref="AG29:AG30"/>
+    <mergeCell ref="AH29:AH30"/>
+    <mergeCell ref="AI29:AI30"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
     <mergeCell ref="M29:M30"/>
     <mergeCell ref="X29:X30"/>
     <mergeCell ref="N29:N30"/>
@@ -13323,26 +13334,15 @@
     <mergeCell ref="W29:W30"/>
     <mergeCell ref="Q29:Q30"/>
     <mergeCell ref="R29:R30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="AM29:AM30"/>
-    <mergeCell ref="AN29:AN30"/>
-    <mergeCell ref="AO29:AO30"/>
-    <mergeCell ref="AE29:AE30"/>
-    <mergeCell ref="AF29:AF30"/>
-    <mergeCell ref="AG29:AG30"/>
-    <mergeCell ref="AH29:AH30"/>
-    <mergeCell ref="AI29:AI30"/>
+    <mergeCell ref="Z29:Z30"/>
+    <mergeCell ref="AA29:AA30"/>
+    <mergeCell ref="AK29:AK30"/>
+    <mergeCell ref="AL29:AL30"/>
+    <mergeCell ref="Y29:Y30"/>
+    <mergeCell ref="AB29:AB30"/>
+    <mergeCell ref="AC29:AC30"/>
+    <mergeCell ref="AD29:AD30"/>
+    <mergeCell ref="AJ29:AJ30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
